--- a/Tabla de Carga Casa Cumbres de Curumo.xlsx
+++ b/Tabla de Carga Casa Cumbres de Curumo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cvqui\Documents\USB\Pregrado\Ingenieria\CT4212 Instalaciones de MT y BT\2022 Oct-Dic\3 Calculo Factores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Universidad\15 - Sep - Dic 2025\Distribución\Tarea3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26608EF9-527B-4421-B9F4-9C69AABA5D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F08D09F-4554-4234-A28E-E230DD269D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B3EC7090-883A-4DA1-9309-9ADDBCE219A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B3EC7090-883A-4DA1-9309-9ADDBCE219A5}"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS EQUIPOS" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Item</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Focos</t>
+  </si>
+  <si>
+    <t>Consumo total</t>
   </si>
 </sst>
 </file>
@@ -260,26 +263,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -288,10 +295,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -616,30 +619,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650A0EA8-4C3D-43C9-86B7-9AAA429427BD}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -656,14 +659,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="14"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -671,14 +677,18 @@
         <v>31</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>60</v>
       </c>
       <c r="E4" s="7">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <f>(D4*E4)/1000</f>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -694,8 +704,12 @@
       <c r="E5" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <f t="shared" ref="F5:F16" si="0">(D5*E5)/1000</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -711,8 +725,12 @@
       <c r="E6" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -728,8 +746,12 @@
       <c r="E7" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>6.7140000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -743,8 +765,12 @@
       <c r="E8" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -758,8 +784,12 @@
       <c r="E9" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -773,8 +803,12 @@
       <c r="E10" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -788,8 +822,12 @@
       <c r="E11" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -803,8 +841,12 @@
       <c r="E12" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -820,8 +862,12 @@
       <c r="E13" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
@@ -835,8 +881,12 @@
       <c r="E14" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
@@ -852,8 +902,12 @@
       <c r="E15" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -869,9 +923,17 @@
       <c r="E16" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
+      <c r="F17">
+        <f>SUM(F4:F16)</f>
+        <v>61.041999999999994</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Tabla de Carga Casa Cumbres de Curumo.xlsx
+++ b/Tabla de Carga Casa Cumbres de Curumo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Universidad\15 - Sep - Dic 2025\Distribución\Tarea3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F08D09F-4554-4234-A28E-E230DD269D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A01285-1AB9-4CE0-83AD-A82BF2D6D1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B3EC7090-883A-4DA1-9309-9ADDBCE219A5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Item</t>
   </si>
@@ -125,14 +125,17 @@
     <t>Focos</t>
   </si>
   <si>
-    <t>Consumo total</t>
+    <t>Capacidad Instalada:</t>
+  </si>
+  <si>
+    <t>Consumo total (KVA)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,12 +151,41 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,37 +204,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -224,24 +238,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -255,55 +251,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650A0EA8-4C3D-43C9-86B7-9AAA429427BD}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,320 +621,317 @@
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
+      <c r="F2" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" t="s">
-        <v>32</v>
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5">
+        <v>60</v>
+      </c>
+      <c r="E3" s="4">
+        <v>90</v>
+      </c>
+      <c r="F3" s="7">
+        <f>(D3*E3)/1000</f>
+        <v>5.4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
+      <c r="A4" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="8">
-        <v>60</v>
-      </c>
-      <c r="E4" s="7">
-        <v>90</v>
-      </c>
-      <c r="F4">
-        <f>(D4*E4)/1000</f>
-        <v>5.4</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" ref="F4:F15" si="0">(D4*E4)/1000</f>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6">
-        <v>3000</v>
-      </c>
-      <c r="E5" s="7">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F16" si="0">(D5*E5)/1000</f>
+      <c r="D5" s="5">
+        <v>6000</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2238</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
+        <v>6.7140000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="0"/>
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="5">
+        <v>200</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="5">
+        <v>5600</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="5">
+        <v>5600</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="0"/>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6">
-        <v>6000</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D12" s="5">
+        <v>400</v>
+      </c>
+      <c r="E12" s="4">
         <v>2</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="F12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5">
+        <v>4000</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="6">
-        <v>2238</v>
-      </c>
-      <c r="E7" s="7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>6.7140000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6">
-        <v>7</v>
-      </c>
-      <c r="E8" s="7">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6">
-        <v>200</v>
-      </c>
-      <c r="E9" s="7">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6">
-        <v>5600</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="D14" s="5">
+        <v>500</v>
+      </c>
+      <c r="E14" s="4">
         <v>1</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6">
-        <v>5600</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="F14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="4">
         <v>1</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6">
-        <v>1000</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="F15" s="7">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="6">
-        <v>400</v>
-      </c>
-      <c r="E13" s="7">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6">
-        <v>4000</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="6">
-        <v>500</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1000</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D17" s="2"/>
-      <c r="F17">
-        <f>SUM(F4:F16)</f>
+      <c r="A16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="6">
+        <f>SUM(F3:F15)</f>
         <v>61.041999999999994</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D2:D3"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>